--- a/単元課題/seikika.xlsx
+++ b/単元課題/seikika.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axiz\Desktop\kadai\単元課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C96F1-FD3F-4F3B-A9BA-474A89CE996C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7A11EA-4421-42DC-ADC9-4E64301353E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1668" yWindow="696" windowWidth="9792" windowHeight="11388" activeTab="3" xr2:uid="{EAC4BC40-0F5A-4B7F-A4D4-C5FD9B0ADF5D}"/>
+    <workbookView xWindow="12384" yWindow="132" windowWidth="10344" windowHeight="11388" activeTab="3" xr2:uid="{EAC4BC40-0F5A-4B7F-A4D4-C5FD9B0ADF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="データ" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
   <si>
     <t>店舗名</t>
     <rPh sb="0" eb="3">
@@ -699,6 +699,13 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払内訳テーブル</t>
+    <rPh sb="0" eb="4">
+      <t>シハライウチワケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1528,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633FBD61-2E47-4E4A-8100-5E417E8C5082}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2072,6 +2079,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
       <c r="F37" s="3">
         <v>3</v>
       </c>

--- a/単元課題/seikika.xlsx
+++ b/単元課題/seikika.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axiz\Desktop\kadai\単元課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7A11EA-4421-42DC-ADC9-4E64301353E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BCE9DD-B6D4-47D8-BCBD-5DB82E5592C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12384" yWindow="132" windowWidth="10344" windowHeight="11388" activeTab="3" xr2:uid="{EAC4BC40-0F5A-4B7F-A4D4-C5FD9B0ADF5D}"/>
+    <workbookView xWindow="4656" yWindow="768" windowWidth="12540" windowHeight="11388" firstSheet="3" activeTab="3" xr2:uid="{EAC4BC40-0F5A-4B7F-A4D4-C5FD9B0ADF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="データ" sheetId="1" r:id="rId1"/>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633FBD61-2E47-4E4A-8100-5E417E8C5082}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
